--- a/data-Processing and Predicting-Risk-Level/student_data.xlsx
+++ b/data-Processing and Predicting-Risk-Level/student_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/271913bc818ee369/Desktop/AIBasedEarlyDetection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{12FEB5A3-9328-486A-BD37-5060B430F34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4161CAEE-6C5A-4A56-ABA8-F7775FDAFAC7}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{12FEB5A3-9328-486A-BD37-5060B430F34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24823D6D-600F-4068-A3D6-B7F1949C6BD7}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" xr2:uid="{BE1B1146-60B3-4F5F-8645-057280579B8A}"/>
+    <workbookView xWindow="1008" yWindow="1236" windowWidth="17280" windowHeight="8880" xr2:uid="{BE1B1146-60B3-4F5F-8645-057280579B8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="314">
   <si>
     <t>Student_Name</t>
   </si>
@@ -166,6 +166,816 @@
   </si>
   <si>
     <t>sara123</t>
+  </si>
+  <si>
+    <t>bhavana123</t>
+  </si>
+  <si>
+    <t>charan123</t>
+  </si>
+  <si>
+    <t>anjali123</t>
+  </si>
+  <si>
+    <t>sindhu123</t>
+  </si>
+  <si>
+    <t>ajay123</t>
+  </si>
+  <si>
+    <t>Divya Gupta</t>
+  </si>
+  <si>
+    <t>divyagupta@gmail.com</t>
+  </si>
+  <si>
+    <t>divya123</t>
+  </si>
+  <si>
+    <t>Sneha Rao</t>
+  </si>
+  <si>
+    <t>sneharao@gmail.com</t>
+  </si>
+  <si>
+    <t>sneha123</t>
+  </si>
+  <si>
+    <t>Prakash Sharma</t>
+  </si>
+  <si>
+    <t>prakashsharma@gmail.com</t>
+  </si>
+  <si>
+    <t>prakash123</t>
+  </si>
+  <si>
+    <t>Deepa Chowdhury</t>
+  </si>
+  <si>
+    <t>deepachowdhury@gmail.com</t>
+  </si>
+  <si>
+    <t>deepa123</t>
+  </si>
+  <si>
+    <t>Chitra Sharma</t>
+  </si>
+  <si>
+    <t>chitrasharma@gmail.com</t>
+  </si>
+  <si>
+    <t>chitra123</t>
+  </si>
+  <si>
+    <t>Ajay Sharma</t>
+  </si>
+  <si>
+    <t>ajaysharma@gmail.com</t>
+  </si>
+  <si>
+    <t>Shiva Iyer</t>
+  </si>
+  <si>
+    <t>shivaiyer@gmail.com</t>
+  </si>
+  <si>
+    <t>shiva123</t>
+  </si>
+  <si>
+    <t>Aravind Nair</t>
+  </si>
+  <si>
+    <t>aravindnair@gmail.com</t>
+  </si>
+  <si>
+    <t>aravind123</t>
+  </si>
+  <si>
+    <t>Kiran Gupta</t>
+  </si>
+  <si>
+    <t>kirangupta@gmail.com</t>
+  </si>
+  <si>
+    <t>kiran123</t>
+  </si>
+  <si>
+    <t>Chitra Menon</t>
+  </si>
+  <si>
+    <t>chitramenon@gmail.com</t>
+  </si>
+  <si>
+    <t>Priya Gupta</t>
+  </si>
+  <si>
+    <t>priyagupta@gmail.com</t>
+  </si>
+  <si>
+    <t>Tejas Sharma</t>
+  </si>
+  <si>
+    <t>tejassharma@gmail.com</t>
+  </si>
+  <si>
+    <t>tejas123</t>
+  </si>
+  <si>
+    <t>Bhavana Joshi</t>
+  </si>
+  <si>
+    <t>bhavanajoshi@gmail.com</t>
+  </si>
+  <si>
+    <t>Priya Reddy</t>
+  </si>
+  <si>
+    <t>priyareddy@gmail.com</t>
+  </si>
+  <si>
+    <t>Pooja Sharma</t>
+  </si>
+  <si>
+    <t>poojasharma@gmail.com</t>
+  </si>
+  <si>
+    <t>pooja123</t>
+  </si>
+  <si>
+    <t>John Varma</t>
+  </si>
+  <si>
+    <t>johnvarma@gmail.com</t>
+  </si>
+  <si>
+    <t>Shiva Kapoor</t>
+  </si>
+  <si>
+    <t>shivakapoor@gmail.com</t>
+  </si>
+  <si>
+    <t>Karthik Nair</t>
+  </si>
+  <si>
+    <t>karthiknair@gmail.com</t>
+  </si>
+  <si>
+    <t>karthik123</t>
+  </si>
+  <si>
+    <t>Lakshmi Ghosh</t>
+  </si>
+  <si>
+    <t>lakshmighosh@gmail.com</t>
+  </si>
+  <si>
+    <t>lakshmi123</t>
+  </si>
+  <si>
+    <t>John Singh</t>
+  </si>
+  <si>
+    <t>johnsingh@gmail.com</t>
+  </si>
+  <si>
+    <t>Ajay Patel</t>
+  </si>
+  <si>
+    <t>ajaypatel@gmail.com</t>
+  </si>
+  <si>
+    <t>Nisha Sharma</t>
+  </si>
+  <si>
+    <t>nishasharma@gmail.com</t>
+  </si>
+  <si>
+    <t>nisha123</t>
+  </si>
+  <si>
+    <t>Naveen Ghosh</t>
+  </si>
+  <si>
+    <t>naveenghosh@gmail.com</t>
+  </si>
+  <si>
+    <t>naveen123</t>
+  </si>
+  <si>
+    <t>Anjali Bhat</t>
+  </si>
+  <si>
+    <t>anjalibhat@gmail.com</t>
+  </si>
+  <si>
+    <t>Arun Nair</t>
+  </si>
+  <si>
+    <t>arunnair@gmail.com</t>
+  </si>
+  <si>
+    <t>Venu Iyer</t>
+  </si>
+  <si>
+    <t>venuiyer@gmail.com</t>
+  </si>
+  <si>
+    <t>venu123</t>
+  </si>
+  <si>
+    <t>Tejas Kumar</t>
+  </si>
+  <si>
+    <t>tejaskumar@gmail.com</t>
+  </si>
+  <si>
+    <t>John Das</t>
+  </si>
+  <si>
+    <t>johndas@gmail.com</t>
+  </si>
+  <si>
+    <t>Divya Patel</t>
+  </si>
+  <si>
+    <t>divyapatel@gmail.com</t>
+  </si>
+  <si>
+    <t>Anita Ghosh</t>
+  </si>
+  <si>
+    <t>anitaghosh@gmail.com</t>
+  </si>
+  <si>
+    <t>Divya Varma</t>
+  </si>
+  <si>
+    <t>divyavarma@gmail.com</t>
+  </si>
+  <si>
+    <t>Divya Chowdhury</t>
+  </si>
+  <si>
+    <t>divyachowdhury@gmail.com</t>
+  </si>
+  <si>
+    <t>Bindu Sharma</t>
+  </si>
+  <si>
+    <t>bindusharma@gmail.com</t>
+  </si>
+  <si>
+    <t>bindu123</t>
+  </si>
+  <si>
+    <t>Pooja Chowdhury</t>
+  </si>
+  <si>
+    <t>poojachowdhury@gmail.com</t>
+  </si>
+  <si>
+    <t>Ramesh Singh</t>
+  </si>
+  <si>
+    <t>rameshsingh@gmail.com</t>
+  </si>
+  <si>
+    <t>ramesh123</t>
+  </si>
+  <si>
+    <t>Ajay Varma</t>
+  </si>
+  <si>
+    <t>ajayvarma@gmail.com</t>
+  </si>
+  <si>
+    <t>Tejas Pandey</t>
+  </si>
+  <si>
+    <t>tejaspandey@gmail.com</t>
+  </si>
+  <si>
+    <t>Nisha Singh</t>
+  </si>
+  <si>
+    <t>nishasingh@gmail.com</t>
+  </si>
+  <si>
+    <t>Ganesh Mehta</t>
+  </si>
+  <si>
+    <t>ganeshmehta@gmail.com</t>
+  </si>
+  <si>
+    <t>ganesh123</t>
+  </si>
+  <si>
+    <t>Karthik Sharma</t>
+  </si>
+  <si>
+    <t>karthiksharma@gmail.com</t>
+  </si>
+  <si>
+    <t>Swathi Iyer</t>
+  </si>
+  <si>
+    <t>swathiiyer@gmail.com</t>
+  </si>
+  <si>
+    <t>swathi123</t>
+  </si>
+  <si>
+    <t>Sara Singh</t>
+  </si>
+  <si>
+    <t>sarasingh@gmail.com</t>
+  </si>
+  <si>
+    <t>Nisha Iyer</t>
+  </si>
+  <si>
+    <t>nishaiyer@gmail.com</t>
+  </si>
+  <si>
+    <t>Lakshmi Rao</t>
+  </si>
+  <si>
+    <t>lakshmirao@gmail.com</t>
+  </si>
+  <si>
+    <t>Lakshmi Pandey</t>
+  </si>
+  <si>
+    <t>lakshmipandey@gmail.com</t>
+  </si>
+  <si>
+    <t>Asha Rao</t>
+  </si>
+  <si>
+    <t>asharao@gmail.com</t>
+  </si>
+  <si>
+    <t>Harini Nair</t>
+  </si>
+  <si>
+    <t>harininair@gmail.com</t>
+  </si>
+  <si>
+    <t>harini123</t>
+  </si>
+  <si>
+    <t>Anjali Kumar</t>
+  </si>
+  <si>
+    <t>anjalikumar@gmail.com</t>
+  </si>
+  <si>
+    <t>Janani Iyer</t>
+  </si>
+  <si>
+    <t>jananiiyer@gmail.com</t>
+  </si>
+  <si>
+    <t>janani123</t>
+  </si>
+  <si>
+    <t>Raj Reddy</t>
+  </si>
+  <si>
+    <t>rajreddy@gmail.com</t>
+  </si>
+  <si>
+    <t>Harini Ghosh</t>
+  </si>
+  <si>
+    <t>harinighosh@gmail.com</t>
+  </si>
+  <si>
+    <t>Rajesh Mehta</t>
+  </si>
+  <si>
+    <t>rajeshmehta@gmail.com</t>
+  </si>
+  <si>
+    <t>rajesh123</t>
+  </si>
+  <si>
+    <t>Sindhu Patel</t>
+  </si>
+  <si>
+    <t>sindhupatel@gmail.com</t>
+  </si>
+  <si>
+    <t>Gokul Kumar</t>
+  </si>
+  <si>
+    <t>gokulkumar@gmail.com</t>
+  </si>
+  <si>
+    <t>gokul123</t>
+  </si>
+  <si>
+    <t>Surya Kumar</t>
+  </si>
+  <si>
+    <t>suryakumar@gmail.com</t>
+  </si>
+  <si>
+    <t>surya123</t>
+  </si>
+  <si>
+    <t>Leela Iyer</t>
+  </si>
+  <si>
+    <t>leelaiyer@gmail.com</t>
+  </si>
+  <si>
+    <t>leela123</t>
+  </si>
+  <si>
+    <t>Rohit Mehta</t>
+  </si>
+  <si>
+    <t>rohitmehta@gmail.com</t>
+  </si>
+  <si>
+    <t>rohit123</t>
+  </si>
+  <si>
+    <t>Rajesh Menon</t>
+  </si>
+  <si>
+    <t>rajeshmenon@gmail.com</t>
+  </si>
+  <si>
+    <t>Suresh Gupta</t>
+  </si>
+  <si>
+    <t>sureshgupta@gmail.com</t>
+  </si>
+  <si>
+    <t>suresh123</t>
+  </si>
+  <si>
+    <t>Ramesh Iyer</t>
+  </si>
+  <si>
+    <t>rameshiyer@gmail.com</t>
+  </si>
+  <si>
+    <t>Ganesh Iyer</t>
+  </si>
+  <si>
+    <t>ganeshiyer@gmail.com</t>
+  </si>
+  <si>
+    <t>Monika Patel</t>
+  </si>
+  <si>
+    <t>monikapatel@gmail.com</t>
+  </si>
+  <si>
+    <t>monika123</t>
+  </si>
+  <si>
+    <t>Geetha Mehta</t>
+  </si>
+  <si>
+    <t>geethamehta@gmail.com</t>
+  </si>
+  <si>
+    <t>geetha123</t>
+  </si>
+  <si>
+    <t>Chitra Iyer</t>
+  </si>
+  <si>
+    <t>chitraiyer@gmail.com</t>
+  </si>
+  <si>
+    <t>Rekha Mehta</t>
+  </si>
+  <si>
+    <t>rekhamehta@gmail.com</t>
+  </si>
+  <si>
+    <t>rekha123</t>
+  </si>
+  <si>
+    <t>Naveen Singh</t>
+  </si>
+  <si>
+    <t>naveensingh@gmail.com</t>
+  </si>
+  <si>
+    <t>Ravi Varma</t>
+  </si>
+  <si>
+    <t>ravivarma@gmail.com</t>
+  </si>
+  <si>
+    <t>ravi123</t>
+  </si>
+  <si>
+    <t>Rekha Iyer</t>
+  </si>
+  <si>
+    <t>rekhaiyer@gmail.com</t>
+  </si>
+  <si>
+    <t>Ajay Menon</t>
+  </si>
+  <si>
+    <t>ajaymenon@gmail.com</t>
+  </si>
+  <si>
+    <t>Ajay Reddy</t>
+  </si>
+  <si>
+    <t>ajayreddy@gmail.com</t>
+  </si>
+  <si>
+    <t>Manoj Reddy</t>
+  </si>
+  <si>
+    <t>manojreddy@gmail.com</t>
+  </si>
+  <si>
+    <t>manoj123</t>
+  </si>
+  <si>
+    <t>Karthik Rao</t>
+  </si>
+  <si>
+    <t>karthikrao@gmail.com</t>
+  </si>
+  <si>
+    <t>David Chowdhury</t>
+  </si>
+  <si>
+    <t>davidchowdhury@gmail.com</t>
+  </si>
+  <si>
+    <t>Rekha Menon</t>
+  </si>
+  <si>
+    <t>rekhamenon@gmail.com</t>
+  </si>
+  <si>
+    <t>Rajesh Mishra</t>
+  </si>
+  <si>
+    <t>rajeshmishra@gmail.com</t>
+  </si>
+  <si>
+    <t>Divya Das</t>
+  </si>
+  <si>
+    <t>divyadas@gmail.com</t>
+  </si>
+  <si>
+    <t>Harsha Mishra</t>
+  </si>
+  <si>
+    <t>harshamishra@gmail.com</t>
+  </si>
+  <si>
+    <t>harsha123</t>
+  </si>
+  <si>
+    <t>John Iyer</t>
+  </si>
+  <si>
+    <t>johniyer@gmail.com</t>
+  </si>
+  <si>
+    <t>Pooja Iyer</t>
+  </si>
+  <si>
+    <t>poojaiyer@gmail.com</t>
+  </si>
+  <si>
+    <t>Lokesh Iyer</t>
+  </si>
+  <si>
+    <t>lokeshiyer@gmail.com</t>
+  </si>
+  <si>
+    <t>lokesh123</t>
+  </si>
+  <si>
+    <t>Leela Patel</t>
+  </si>
+  <si>
+    <t>leelapatel@gmail.com</t>
+  </si>
+  <si>
+    <t>Lokesh Kumar</t>
+  </si>
+  <si>
+    <t>lokeshkumar@gmail.com</t>
+  </si>
+  <si>
+    <t>Dinesh Bhat</t>
+  </si>
+  <si>
+    <t>dineshbhat@gmail.com</t>
+  </si>
+  <si>
+    <t>dinesh123</t>
+  </si>
+  <si>
+    <t>Ravi Gupta</t>
+  </si>
+  <si>
+    <t>ravigupta@gmail.com</t>
+  </si>
+  <si>
+    <t>Rajesh Das</t>
+  </si>
+  <si>
+    <t>rajeshdas@gmail.com</t>
+  </si>
+  <si>
+    <t>Vikram Chowdhury</t>
+  </si>
+  <si>
+    <t>vikramchowdhury@gmail.com</t>
+  </si>
+  <si>
+    <t>vikram123</t>
+  </si>
+  <si>
+    <t>Harini Singh</t>
+  </si>
+  <si>
+    <t>harinisingh@gmail.com</t>
+  </si>
+  <si>
+    <t>John Sharma</t>
+  </si>
+  <si>
+    <t>johnsharma@gmail.com</t>
+  </si>
+  <si>
+    <t>Swathi Das</t>
+  </si>
+  <si>
+    <t>swathidas@gmail.com</t>
+  </si>
+  <si>
+    <t>Rajesh Ghosh</t>
+  </si>
+  <si>
+    <t>rajeshghosh@gmail.com</t>
+  </si>
+  <si>
+    <t>Deepa Singh</t>
+  </si>
+  <si>
+    <t>deepasingh@gmail.com</t>
+  </si>
+  <si>
+    <t>Shalini Mishra</t>
+  </si>
+  <si>
+    <t>shalinimishra@gmail.com</t>
+  </si>
+  <si>
+    <t>shalini123</t>
+  </si>
+  <si>
+    <t>Preethi Kapoor</t>
+  </si>
+  <si>
+    <t>preethikapoor@gmail.com</t>
+  </si>
+  <si>
+    <t>preethi123</t>
+  </si>
+  <si>
+    <t>Dinesh Ghosh</t>
+  </si>
+  <si>
+    <t>dineshghosh@gmail.com</t>
+  </si>
+  <si>
+    <t>Charan Ghosh</t>
+  </si>
+  <si>
+    <t>charanghosh@gmail.com</t>
+  </si>
+  <si>
+    <t>Surya Nair</t>
+  </si>
+  <si>
+    <t>suryanair@gmail.com</t>
+  </si>
+  <si>
+    <t>Geetha Ghosh</t>
+  </si>
+  <si>
+    <t>geethaghosh@gmail.com</t>
+  </si>
+  <si>
+    <t>Ramesh Ghosh</t>
+  </si>
+  <si>
+    <t>rameshghosh@gmail.com</t>
+  </si>
+  <si>
+    <t>Surya Joshi</t>
+  </si>
+  <si>
+    <t>suryajoshi@gmail.com</t>
+  </si>
+  <si>
+    <t>Manoj Nair</t>
+  </si>
+  <si>
+    <t>manojnair@gmail.com</t>
+  </si>
+  <si>
+    <t>Raj Gupta</t>
+  </si>
+  <si>
+    <t>rajgupta@gmail.com</t>
+  </si>
+  <si>
+    <t>Meena Kapoor</t>
+  </si>
+  <si>
+    <t>meenakapoor@gmail.com</t>
+  </si>
+  <si>
+    <t>Usha Kumar</t>
+  </si>
+  <si>
+    <t>ushakumar@gmail.com</t>
+  </si>
+  <si>
+    <t>usha123</t>
+  </si>
+  <si>
+    <t>Anjali Rao</t>
+  </si>
+  <si>
+    <t>anjalirao@gmail.com</t>
+  </si>
+  <si>
+    <t>Deepa Gupta</t>
+  </si>
+  <si>
+    <t>deepagupta@gmail.com</t>
+  </si>
+  <si>
+    <t>Bhavana Menon</t>
+  </si>
+  <si>
+    <t>bhavanamenon@gmail.com</t>
+  </si>
+  <si>
+    <t>Usha Nair</t>
+  </si>
+  <si>
+    <t>ushanair@gmail.com</t>
+  </si>
+  <si>
+    <t>Dinesh Singh</t>
+  </si>
+  <si>
+    <t>dineshsingh@gmail.com</t>
+  </si>
+  <si>
+    <t>Usha Sharma</t>
+  </si>
+  <si>
+    <t>ushasharma@gmail.com</t>
+  </si>
+  <si>
+    <t>Deepa Das</t>
+  </si>
+  <si>
+    <t>deepadas@gmail.com</t>
+  </si>
+  <si>
+    <t>poojaverma@gmail.com</t>
+  </si>
+  <si>
+    <t>Pooja Verma</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -218,7 +1028,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -229,6 +1039,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -245,6 +1056,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -544,15 +1359,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B684BE7-2F7A-4EDE-A52E-017AF4C67EF2}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="33.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -806,6 +1622,2536 @@
       </c>
       <c r="G11" s="2" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12">
+        <v>111</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>75</v>
+      </c>
+      <c r="E12">
+        <v>83</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>112</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>46</v>
+      </c>
+      <c r="E13">
+        <v>71</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14">
+        <v>113</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>64</v>
+      </c>
+      <c r="E14">
+        <v>93</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15">
+        <v>114</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>55</v>
+      </c>
+      <c r="E15">
+        <v>71</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16">
+        <v>115</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <v>48</v>
+      </c>
+      <c r="E16">
+        <v>72</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17">
+        <v>116</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>79</v>
+      </c>
+      <c r="E17">
+        <v>56</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18">
+        <v>117</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>89</v>
+      </c>
+      <c r="E18">
+        <v>80</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19">
+        <v>118</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>53</v>
+      </c>
+      <c r="E19">
+        <v>49</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20">
+        <v>119</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>67</v>
+      </c>
+      <c r="E20">
+        <v>79</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21">
+        <v>120</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>64</v>
+      </c>
+      <c r="E21">
+        <v>99</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22">
+        <v>121</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>54</v>
+      </c>
+      <c r="E22">
+        <v>74</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23">
+        <v>122</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23">
+        <v>55</v>
+      </c>
+      <c r="E23">
+        <v>60</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24">
+        <v>123</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24">
+        <v>68</v>
+      </c>
+      <c r="E24">
+        <v>53</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25">
+        <v>124</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>83</v>
+      </c>
+      <c r="E25">
+        <v>80</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26">
+        <v>125</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26">
+        <v>61</v>
+      </c>
+      <c r="E26">
+        <v>50</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27">
+        <v>126</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27">
+        <v>83</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28">
+        <v>127</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>97</v>
+      </c>
+      <c r="E28">
+        <v>66</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29">
+        <v>128</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29">
+        <v>88</v>
+      </c>
+      <c r="E29">
+        <v>55</v>
+      </c>
+      <c r="F29" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30">
+        <v>129</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>81</v>
+      </c>
+      <c r="E30">
+        <v>79</v>
+      </c>
+      <c r="F30" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31">
+        <v>130</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>83</v>
+      </c>
+      <c r="E31">
+        <v>79</v>
+      </c>
+      <c r="F31" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32">
+        <v>131</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32">
+        <v>42</v>
+      </c>
+      <c r="E32">
+        <v>91</v>
+      </c>
+      <c r="F32" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33">
+        <v>132</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33">
+        <v>71</v>
+      </c>
+      <c r="E33">
+        <v>82</v>
+      </c>
+      <c r="F33" t="s">
+        <v>107</v>
+      </c>
+      <c r="G33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34">
+        <v>133</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>95</v>
+      </c>
+      <c r="E34">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
+        <v>110</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35">
+        <v>134</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>64</v>
+      </c>
+      <c r="E35">
+        <v>90</v>
+      </c>
+      <c r="F35" t="s">
+        <v>112</v>
+      </c>
+      <c r="G35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36">
+        <v>135</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36">
+        <v>81</v>
+      </c>
+      <c r="E36">
+        <v>52</v>
+      </c>
+      <c r="F36" t="s">
+        <v>114</v>
+      </c>
+      <c r="G36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37">
+        <v>136</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37">
+        <v>47</v>
+      </c>
+      <c r="E37">
+        <v>96</v>
+      </c>
+      <c r="F37" t="s">
+        <v>117</v>
+      </c>
+      <c r="G37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38">
+        <v>137</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38">
+        <v>40</v>
+      </c>
+      <c r="E38">
+        <v>93</v>
+      </c>
+      <c r="F38" t="s">
+        <v>119</v>
+      </c>
+      <c r="G38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39">
+        <v>138</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>58</v>
+      </c>
+      <c r="E39">
+        <v>78</v>
+      </c>
+      <c r="F39" t="s">
+        <v>121</v>
+      </c>
+      <c r="G39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40">
+        <v>139</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40">
+        <v>80</v>
+      </c>
+      <c r="E40">
+        <v>68</v>
+      </c>
+      <c r="F40" t="s">
+        <v>123</v>
+      </c>
+      <c r="G40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41">
+        <v>140</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41">
+        <v>94</v>
+      </c>
+      <c r="E41">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>125</v>
+      </c>
+      <c r="G41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42">
+        <v>141</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42">
+        <v>84</v>
+      </c>
+      <c r="E42">
+        <v>98</v>
+      </c>
+      <c r="F42" t="s">
+        <v>127</v>
+      </c>
+      <c r="G42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43">
+        <v>142</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43">
+        <v>43</v>
+      </c>
+      <c r="E43">
+        <v>96</v>
+      </c>
+      <c r="F43" t="s">
+        <v>129</v>
+      </c>
+      <c r="G43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44">
+        <v>143</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44">
+        <v>58</v>
+      </c>
+      <c r="E44">
+        <v>53</v>
+      </c>
+      <c r="F44" t="s">
+        <v>132</v>
+      </c>
+      <c r="G44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45">
+        <v>144</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45">
+        <v>39</v>
+      </c>
+      <c r="E45">
+        <v>40</v>
+      </c>
+      <c r="F45" t="s">
+        <v>134</v>
+      </c>
+      <c r="G45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46">
+        <v>145</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46">
+        <v>47</v>
+      </c>
+      <c r="E46">
+        <v>61</v>
+      </c>
+      <c r="F46" t="s">
+        <v>137</v>
+      </c>
+      <c r="G46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47">
+        <v>146</v>
+      </c>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47">
+        <v>41</v>
+      </c>
+      <c r="E47">
+        <v>41</v>
+      </c>
+      <c r="F47" t="s">
+        <v>139</v>
+      </c>
+      <c r="G47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48">
+        <v>147</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48">
+        <v>71</v>
+      </c>
+      <c r="E48">
+        <v>61</v>
+      </c>
+      <c r="F48" t="s">
+        <v>141</v>
+      </c>
+      <c r="G48" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49">
+        <v>148</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49">
+        <v>68</v>
+      </c>
+      <c r="E49">
+        <v>47</v>
+      </c>
+      <c r="F49" t="s">
+        <v>143</v>
+      </c>
+      <c r="G49" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>145</v>
+      </c>
+      <c r="B50">
+        <v>149</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50">
+        <v>53</v>
+      </c>
+      <c r="E50">
+        <v>90</v>
+      </c>
+      <c r="F50" t="s">
+        <v>146</v>
+      </c>
+      <c r="G50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51">
+        <v>150</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51">
+        <v>91</v>
+      </c>
+      <c r="E51">
+        <v>55</v>
+      </c>
+      <c r="F51" t="s">
+        <v>148</v>
+      </c>
+      <c r="G51" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52">
+        <v>151</v>
+      </c>
+      <c r="C52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52">
+        <v>72</v>
+      </c>
+      <c r="E52">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
+        <v>151</v>
+      </c>
+      <c r="G52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53">
+        <v>152</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53">
+        <v>91</v>
+      </c>
+      <c r="E53">
+        <v>98</v>
+      </c>
+      <c r="F53" t="s">
+        <v>153</v>
+      </c>
+      <c r="G53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54">
+        <v>153</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54">
+        <v>89</v>
+      </c>
+      <c r="E54">
+        <v>96</v>
+      </c>
+      <c r="F54" t="s">
+        <v>155</v>
+      </c>
+      <c r="G54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55">
+        <v>154</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55">
+        <v>77</v>
+      </c>
+      <c r="E55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
+        <v>157</v>
+      </c>
+      <c r="G55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>158</v>
+      </c>
+      <c r="B56">
+        <v>155</v>
+      </c>
+      <c r="C56" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56">
+        <v>88</v>
+      </c>
+      <c r="E56">
+        <v>63</v>
+      </c>
+      <c r="F56" t="s">
+        <v>159</v>
+      </c>
+      <c r="G56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>160</v>
+      </c>
+      <c r="B57">
+        <v>156</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>97</v>
+      </c>
+      <c r="E57">
+        <v>78</v>
+      </c>
+      <c r="F57" t="s">
+        <v>161</v>
+      </c>
+      <c r="G57" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>163</v>
+      </c>
+      <c r="B58">
+        <v>157</v>
+      </c>
+      <c r="C58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58">
+        <v>98</v>
+      </c>
+      <c r="E58">
+        <v>64</v>
+      </c>
+      <c r="F58" t="s">
+        <v>164</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>165</v>
+      </c>
+      <c r="B59">
+        <v>158</v>
+      </c>
+      <c r="C59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59">
+        <v>71</v>
+      </c>
+      <c r="E59">
+        <v>76</v>
+      </c>
+      <c r="F59" t="s">
+        <v>166</v>
+      </c>
+      <c r="G59" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60">
+        <v>159</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60">
+        <v>86</v>
+      </c>
+      <c r="E60">
+        <v>63</v>
+      </c>
+      <c r="F60" t="s">
+        <v>169</v>
+      </c>
+      <c r="G60" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>170</v>
+      </c>
+      <c r="B61">
+        <v>160</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61">
+        <v>96</v>
+      </c>
+      <c r="E61">
+        <v>54</v>
+      </c>
+      <c r="F61" t="s">
+        <v>171</v>
+      </c>
+      <c r="G61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>172</v>
+      </c>
+      <c r="B62">
+        <v>161</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62">
+        <v>47</v>
+      </c>
+      <c r="E62">
+        <v>70</v>
+      </c>
+      <c r="F62" t="s">
+        <v>173</v>
+      </c>
+      <c r="G62" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>175</v>
+      </c>
+      <c r="B63">
+        <v>162</v>
+      </c>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63">
+        <v>40</v>
+      </c>
+      <c r="E63">
+        <v>64</v>
+      </c>
+      <c r="F63" t="s">
+        <v>176</v>
+      </c>
+      <c r="G63" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>177</v>
+      </c>
+      <c r="B64">
+        <v>163</v>
+      </c>
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64">
+        <v>100</v>
+      </c>
+      <c r="E64">
+        <v>98</v>
+      </c>
+      <c r="F64" t="s">
+        <v>178</v>
+      </c>
+      <c r="G64" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>180</v>
+      </c>
+      <c r="B65">
+        <v>164</v>
+      </c>
+      <c r="C65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65">
+        <v>68</v>
+      </c>
+      <c r="E65">
+        <v>78</v>
+      </c>
+      <c r="F65" t="s">
+        <v>181</v>
+      </c>
+      <c r="G65" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>183</v>
+      </c>
+      <c r="B66">
+        <v>165</v>
+      </c>
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66">
+        <v>45</v>
+      </c>
+      <c r="E66">
+        <v>57</v>
+      </c>
+      <c r="F66" t="s">
+        <v>184</v>
+      </c>
+      <c r="G66" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>186</v>
+      </c>
+      <c r="B67">
+        <v>166</v>
+      </c>
+      <c r="C67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67">
+        <v>69</v>
+      </c>
+      <c r="E67">
+        <v>52</v>
+      </c>
+      <c r="F67" t="s">
+        <v>187</v>
+      </c>
+      <c r="G67" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>189</v>
+      </c>
+      <c r="B68">
+        <v>167</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68">
+        <v>90</v>
+      </c>
+      <c r="E68">
+        <v>78</v>
+      </c>
+      <c r="F68" t="s">
+        <v>190</v>
+      </c>
+      <c r="G68" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>191</v>
+      </c>
+      <c r="B69">
+        <v>168</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69">
+        <v>82</v>
+      </c>
+      <c r="E69">
+        <v>98</v>
+      </c>
+      <c r="F69" t="s">
+        <v>192</v>
+      </c>
+      <c r="G69" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>194</v>
+      </c>
+      <c r="B70">
+        <v>169</v>
+      </c>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70">
+        <v>92</v>
+      </c>
+      <c r="E70">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>195</v>
+      </c>
+      <c r="G70" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>196</v>
+      </c>
+      <c r="B71">
+        <v>170</v>
+      </c>
+      <c r="C71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71">
+        <v>77</v>
+      </c>
+      <c r="E71">
+        <v>77</v>
+      </c>
+      <c r="F71" t="s">
+        <v>197</v>
+      </c>
+      <c r="G71" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>198</v>
+      </c>
+      <c r="B72">
+        <v>171</v>
+      </c>
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72">
+        <v>89</v>
+      </c>
+      <c r="E72">
+        <v>50</v>
+      </c>
+      <c r="F72" t="s">
+        <v>199</v>
+      </c>
+      <c r="G72" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>201</v>
+      </c>
+      <c r="B73">
+        <v>172</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73">
+        <v>44</v>
+      </c>
+      <c r="E73">
+        <v>65</v>
+      </c>
+      <c r="F73" t="s">
+        <v>202</v>
+      </c>
+      <c r="G73" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>204</v>
+      </c>
+      <c r="B74">
+        <v>173</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74">
+        <v>57</v>
+      </c>
+      <c r="E74">
+        <v>96</v>
+      </c>
+      <c r="F74" t="s">
+        <v>205</v>
+      </c>
+      <c r="G74" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>206</v>
+      </c>
+      <c r="B75">
+        <v>174</v>
+      </c>
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75">
+        <v>99</v>
+      </c>
+      <c r="E75">
+        <v>89</v>
+      </c>
+      <c r="F75" t="s">
+        <v>207</v>
+      </c>
+      <c r="G75" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>209</v>
+      </c>
+      <c r="B76">
+        <v>175</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76">
+        <v>95</v>
+      </c>
+      <c r="E76">
+        <v>42</v>
+      </c>
+      <c r="F76" t="s">
+        <v>210</v>
+      </c>
+      <c r="G76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>211</v>
+      </c>
+      <c r="B77">
+        <v>176</v>
+      </c>
+      <c r="C77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77">
+        <v>48</v>
+      </c>
+      <c r="E77">
+        <v>62</v>
+      </c>
+      <c r="F77" t="s">
+        <v>212</v>
+      </c>
+      <c r="G77" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>214</v>
+      </c>
+      <c r="B78">
+        <v>177</v>
+      </c>
+      <c r="C78" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78">
+        <v>94</v>
+      </c>
+      <c r="E78">
+        <v>55</v>
+      </c>
+      <c r="F78" t="s">
+        <v>215</v>
+      </c>
+      <c r="G78" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>216</v>
+      </c>
+      <c r="B79">
+        <v>178</v>
+      </c>
+      <c r="C79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79">
+        <v>97</v>
+      </c>
+      <c r="F79" t="s">
+        <v>217</v>
+      </c>
+      <c r="G79" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>218</v>
+      </c>
+      <c r="B80">
+        <v>179</v>
+      </c>
+      <c r="C80" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80">
+        <v>65</v>
+      </c>
+      <c r="E80">
+        <v>54</v>
+      </c>
+      <c r="F80" t="s">
+        <v>219</v>
+      </c>
+      <c r="G80" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>220</v>
+      </c>
+      <c r="B81">
+        <v>180</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81">
+        <v>38</v>
+      </c>
+      <c r="E81">
+        <v>46</v>
+      </c>
+      <c r="F81" t="s">
+        <v>221</v>
+      </c>
+      <c r="G81" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>223</v>
+      </c>
+      <c r="B82">
+        <v>181</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82">
+        <v>87</v>
+      </c>
+      <c r="E82">
+        <v>46</v>
+      </c>
+      <c r="F82" t="s">
+        <v>224</v>
+      </c>
+      <c r="G82" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>225</v>
+      </c>
+      <c r="B83">
+        <v>182</v>
+      </c>
+      <c r="C83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83">
+        <v>93</v>
+      </c>
+      <c r="E83" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" t="s">
+        <v>226</v>
+      </c>
+      <c r="G83" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>227</v>
+      </c>
+      <c r="B84">
+        <v>183</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84">
+        <v>99</v>
+      </c>
+      <c r="E84">
+        <v>86</v>
+      </c>
+      <c r="F84" t="s">
+        <v>228</v>
+      </c>
+      <c r="G84" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>229</v>
+      </c>
+      <c r="B85">
+        <v>184</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85">
+        <v>92</v>
+      </c>
+      <c r="E85">
+        <v>89</v>
+      </c>
+      <c r="F85" t="s">
+        <v>230</v>
+      </c>
+      <c r="G85" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>231</v>
+      </c>
+      <c r="B86">
+        <v>185</v>
+      </c>
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86">
+        <v>90</v>
+      </c>
+      <c r="E86">
+        <v>61</v>
+      </c>
+      <c r="F86" t="s">
+        <v>232</v>
+      </c>
+      <c r="G86" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>233</v>
+      </c>
+      <c r="B87">
+        <v>186</v>
+      </c>
+      <c r="C87" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87">
+        <v>76</v>
+      </c>
+      <c r="E87">
+        <v>53</v>
+      </c>
+      <c r="F87" t="s">
+        <v>234</v>
+      </c>
+      <c r="G87" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>236</v>
+      </c>
+      <c r="B88">
+        <v>187</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88">
+        <v>88</v>
+      </c>
+      <c r="E88">
+        <v>51</v>
+      </c>
+      <c r="F88" t="s">
+        <v>237</v>
+      </c>
+      <c r="G88" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>238</v>
+      </c>
+      <c r="B89">
+        <v>188</v>
+      </c>
+      <c r="C89" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89">
+        <v>70</v>
+      </c>
+      <c r="E89">
+        <v>92</v>
+      </c>
+      <c r="F89" t="s">
+        <v>239</v>
+      </c>
+      <c r="G89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>240</v>
+      </c>
+      <c r="B90">
+        <v>189</v>
+      </c>
+      <c r="C90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90">
+        <v>89</v>
+      </c>
+      <c r="E90">
+        <v>53</v>
+      </c>
+      <c r="F90" t="s">
+        <v>241</v>
+      </c>
+      <c r="G90" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>243</v>
+      </c>
+      <c r="B91">
+        <v>190</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91">
+        <v>56</v>
+      </c>
+      <c r="E91">
+        <v>90</v>
+      </c>
+      <c r="F91" t="s">
+        <v>244</v>
+      </c>
+      <c r="G91" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>245</v>
+      </c>
+      <c r="B92">
+        <v>191</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92">
+        <v>73</v>
+      </c>
+      <c r="E92">
+        <v>69</v>
+      </c>
+      <c r="F92" t="s">
+        <v>246</v>
+      </c>
+      <c r="G92" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>247</v>
+      </c>
+      <c r="B93">
+        <v>192</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93">
+        <v>60</v>
+      </c>
+      <c r="E93">
+        <v>93</v>
+      </c>
+      <c r="F93" t="s">
+        <v>248</v>
+      </c>
+      <c r="G93" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>250</v>
+      </c>
+      <c r="B94">
+        <v>193</v>
+      </c>
+      <c r="C94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94">
+        <v>90</v>
+      </c>
+      <c r="E94">
+        <v>62</v>
+      </c>
+      <c r="F94" t="s">
+        <v>251</v>
+      </c>
+      <c r="G94" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>252</v>
+      </c>
+      <c r="B95">
+        <v>194</v>
+      </c>
+      <c r="C95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95">
+        <v>82</v>
+      </c>
+      <c r="E95">
+        <v>90</v>
+      </c>
+      <c r="F95" t="s">
+        <v>253</v>
+      </c>
+      <c r="G95" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>254</v>
+      </c>
+      <c r="B96">
+        <v>195</v>
+      </c>
+      <c r="C96" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96">
+        <v>77</v>
+      </c>
+      <c r="E96">
+        <v>63</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="G96" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>257</v>
+      </c>
+      <c r="B97">
+        <v>196</v>
+      </c>
+      <c r="C97" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97">
+        <v>59</v>
+      </c>
+      <c r="E97">
+        <v>55</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="G97" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>259</v>
+      </c>
+      <c r="B98">
+        <v>197</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98">
+        <v>69</v>
+      </c>
+      <c r="E98">
+        <v>98</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="G98" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>261</v>
+      </c>
+      <c r="B99">
+        <v>198</v>
+      </c>
+      <c r="C99" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99">
+        <v>94</v>
+      </c>
+      <c r="E99">
+        <v>62</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="G99" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>263</v>
+      </c>
+      <c r="B100">
+        <v>199</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100">
+        <v>47</v>
+      </c>
+      <c r="E100">
+        <v>58</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G100" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>265</v>
+      </c>
+      <c r="B101">
+        <v>200</v>
+      </c>
+      <c r="C101" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101">
+        <v>52</v>
+      </c>
+      <c r="E101">
+        <v>78</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G101" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>267</v>
+      </c>
+      <c r="B102">
+        <v>201</v>
+      </c>
+      <c r="C102" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102">
+        <v>40</v>
+      </c>
+      <c r="E102">
+        <v>54</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G102" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>270</v>
+      </c>
+      <c r="B103">
+        <v>202</v>
+      </c>
+      <c r="C103" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103">
+        <v>77</v>
+      </c>
+      <c r="E103">
+        <v>91</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G103" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>273</v>
+      </c>
+      <c r="B104">
+        <v>203</v>
+      </c>
+      <c r="C104" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104">
+        <v>46</v>
+      </c>
+      <c r="E104">
+        <v>74</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G104" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>275</v>
+      </c>
+      <c r="B105">
+        <v>204</v>
+      </c>
+      <c r="C105" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105">
+        <v>78</v>
+      </c>
+      <c r="E105">
+        <v>51</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G105" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>277</v>
+      </c>
+      <c r="B106">
+        <v>205</v>
+      </c>
+      <c r="C106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106">
+        <v>97</v>
+      </c>
+      <c r="E106">
+        <v>45</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G106" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>279</v>
+      </c>
+      <c r="B107">
+        <v>206</v>
+      </c>
+      <c r="C107" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107">
+        <v>62</v>
+      </c>
+      <c r="E107">
+        <v>91</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G107" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>281</v>
+      </c>
+      <c r="B108">
+        <v>207</v>
+      </c>
+      <c r="C108" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108">
+        <v>61</v>
+      </c>
+      <c r="E108">
+        <v>72</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G108" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>283</v>
+      </c>
+      <c r="B109">
+        <v>208</v>
+      </c>
+      <c r="C109" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109">
+        <v>58</v>
+      </c>
+      <c r="E109">
+        <v>94</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G109" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>285</v>
+      </c>
+      <c r="B110">
+        <v>209</v>
+      </c>
+      <c r="C110" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110">
+        <v>81</v>
+      </c>
+      <c r="E110">
+        <v>50</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="G110" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>287</v>
+      </c>
+      <c r="B111">
+        <v>210</v>
+      </c>
+      <c r="C111" t="s">
+        <v>18</v>
+      </c>
+      <c r="D111">
+        <v>76</v>
+      </c>
+      <c r="E111">
+        <v>43</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="G111" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>289</v>
+      </c>
+      <c r="B112">
+        <v>211</v>
+      </c>
+      <c r="C112" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112">
+        <v>53</v>
+      </c>
+      <c r="E112">
+        <v>41</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="G112" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>309</v>
+      </c>
+      <c r="B113">
+        <v>212</v>
+      </c>
+      <c r="C113" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113">
+        <v>85</v>
+      </c>
+      <c r="E113">
+        <v>60</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G113" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>291</v>
+      </c>
+      <c r="B114">
+        <v>213</v>
+      </c>
+      <c r="C114" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114">
+        <v>77</v>
+      </c>
+      <c r="E114">
+        <v>65</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="G114" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>294</v>
+      </c>
+      <c r="B115">
+        <v>214</v>
+      </c>
+      <c r="C115" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115">
+        <v>56</v>
+      </c>
+      <c r="E115">
+        <v>58</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>296</v>
+      </c>
+      <c r="B116">
+        <v>215</v>
+      </c>
+      <c r="C116" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116">
+        <v>87</v>
+      </c>
+      <c r="E116">
+        <v>44</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G116" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>298</v>
+      </c>
+      <c r="B117">
+        <v>216</v>
+      </c>
+      <c r="C117" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117">
+        <v>78</v>
+      </c>
+      <c r="E117">
+        <v>47</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="G117" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>300</v>
+      </c>
+      <c r="B118">
+        <v>217</v>
+      </c>
+      <c r="C118" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118">
+        <v>48</v>
+      </c>
+      <c r="E118">
+        <v>66</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="G118" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>302</v>
+      </c>
+      <c r="B119">
+        <v>218</v>
+      </c>
+      <c r="C119" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119">
+        <v>55</v>
+      </c>
+      <c r="E119">
+        <v>51</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G119" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>304</v>
+      </c>
+      <c r="B120">
+        <v>219</v>
+      </c>
+      <c r="C120" t="s">
+        <v>18</v>
+      </c>
+      <c r="D120">
+        <v>98</v>
+      </c>
+      <c r="E120">
+        <v>92</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G120" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>306</v>
+      </c>
+      <c r="B121">
+        <v>220</v>
+      </c>
+      <c r="C121" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121">
+        <v>41</v>
+      </c>
+      <c r="E121">
+        <v>69</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="G121" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -820,6 +4166,49 @@
     <hyperlink ref="F9" r:id="rId8" display="mailto:anita@gmail.com" xr:uid="{31A830C0-3D7A-4761-9640-C1DFAB2ACAE7}"/>
     <hyperlink ref="F10" r:id="rId9" display="mailto:arun@gmail.com" xr:uid="{EE9E0FCC-B28C-493E-9886-1E220015ECD5}"/>
     <hyperlink ref="F11" r:id="rId10" display="mailto:sara@gmail.com" xr:uid="{28E27C82-DF5E-4E61-BAA6-A20848EC693C}"/>
+    <hyperlink ref="F113" r:id="rId11" xr:uid="{3DFC26D3-D2C0-4014-8DF1-D4B1D8501BB7}"/>
+    <hyperlink ref="F121" r:id="rId12" xr:uid="{5D215E86-A1E1-4354-918C-9994FFF190F7}"/>
+    <hyperlink ref="F120" r:id="rId13" xr:uid="{2F5E7B8B-7997-4554-9F82-D26D7BF55112}"/>
+    <hyperlink ref="F119" r:id="rId14" xr:uid="{DA5D65FF-C042-46ED-A5CC-5C241A037A5D}"/>
+    <hyperlink ref="F15" r:id="rId15" xr:uid="{ED29164F-4F9E-4102-B8E4-7202E3EDFD6D}"/>
+    <hyperlink ref="F14" r:id="rId16" xr:uid="{DAAF35B6-ABD5-4B4D-8466-A58D0BE3C93F}"/>
+    <hyperlink ref="F13" r:id="rId17" xr:uid="{BDBA3D30-D309-4170-B259-857770BBA937}"/>
+    <hyperlink ref="F12" r:id="rId18" xr:uid="{02E8774E-A23F-49E8-8555-348DCBCF19E6}"/>
+    <hyperlink ref="F16" r:id="rId19" xr:uid="{73427251-1DB1-491E-A1AF-5F5C646A644F}"/>
+    <hyperlink ref="F17" r:id="rId20" xr:uid="{66313452-68C2-4F08-803A-2AC79FAABBBE}"/>
+    <hyperlink ref="F18" r:id="rId21" xr:uid="{06E911EA-3F87-42F2-B7FC-D42189D3739C}"/>
+    <hyperlink ref="F19" r:id="rId22" xr:uid="{65DAB6A4-B871-4CBA-A83D-14BEBA7DEA81}"/>
+    <hyperlink ref="F20" r:id="rId23" xr:uid="{D561C328-A456-4DCE-87AA-F01CDC157EA1}"/>
+    <hyperlink ref="F21" r:id="rId24" xr:uid="{9CCAACF3-E39C-490E-AD9E-B75C5AEFD590}"/>
+    <hyperlink ref="F22" r:id="rId25" xr:uid="{07927B0F-EEA8-4D6C-981E-4D712A5F6E47}"/>
+    <hyperlink ref="F23" r:id="rId26" xr:uid="{82DE2EEE-CAE6-43D2-BF79-65BBCFE13CCB}"/>
+    <hyperlink ref="F24" r:id="rId27" xr:uid="{1EA52B73-EACB-4631-A2E1-30166C4B1F50}"/>
+    <hyperlink ref="F25" r:id="rId28" xr:uid="{01617CC7-FAC9-42E8-A702-44D28D7BFAF4}"/>
+    <hyperlink ref="F26" r:id="rId29" xr:uid="{92B14041-C66E-4A25-AF7E-3F13F0069C56}"/>
+    <hyperlink ref="F27" r:id="rId30" xr:uid="{C3815B7A-3B34-43F6-9919-7876358B14B5}"/>
+    <hyperlink ref="F28" r:id="rId31" xr:uid="{1644BFF4-53EA-4610-919E-A0BAA0608D7E}"/>
+    <hyperlink ref="F118" r:id="rId32" xr:uid="{7F8E1761-4ED8-4D49-AEF7-3D465EF892A0}"/>
+    <hyperlink ref="F117" r:id="rId33" xr:uid="{81A5B53A-2EEB-4596-BF89-83DF4F11917A}"/>
+    <hyperlink ref="F116" r:id="rId34" xr:uid="{4486292A-5B30-4E90-9B46-2C2D130A3F94}"/>
+    <hyperlink ref="F115" r:id="rId35" xr:uid="{02119A9D-BD65-4B7D-95DE-8B56F96CA1C9}"/>
+    <hyperlink ref="F114" r:id="rId36" xr:uid="{186EA0E2-D70F-44FD-A5D2-5F42876361E1}"/>
+    <hyperlink ref="F112" r:id="rId37" xr:uid="{8D851FF5-302A-4457-A6F3-89FB18E26AB0}"/>
+    <hyperlink ref="F111" r:id="rId38" xr:uid="{AEA25BA7-579F-453B-AB19-F32084DC64A8}"/>
+    <hyperlink ref="F110" r:id="rId39" xr:uid="{5B95264C-F52C-4464-BC5A-2DF7E93B45A9}"/>
+    <hyperlink ref="F109" r:id="rId40" xr:uid="{4C4AA5BF-420D-4A67-A7D3-D6466C2AFAB8}"/>
+    <hyperlink ref="F108" r:id="rId41" xr:uid="{D47C09B6-A380-490C-9995-C203C63D8753}"/>
+    <hyperlink ref="F107" r:id="rId42" xr:uid="{C63B4FAA-EA9C-45CC-A238-08EFDD8086CB}"/>
+    <hyperlink ref="F106" r:id="rId43" xr:uid="{64C4D10F-8F9B-4CF7-B632-1E577FD87417}"/>
+    <hyperlink ref="F105" r:id="rId44" xr:uid="{1810CA17-6D07-4B2D-83D3-F3BE20B62E5C}"/>
+    <hyperlink ref="F104" r:id="rId45" xr:uid="{AE5DA84E-B743-4618-BD03-BC063EE94101}"/>
+    <hyperlink ref="F103" r:id="rId46" xr:uid="{7CEB5B30-CACB-4299-862A-57C4138C96BE}"/>
+    <hyperlink ref="F102" r:id="rId47" xr:uid="{4719C563-58B0-41B8-9527-F84E91773661}"/>
+    <hyperlink ref="F101" r:id="rId48" xr:uid="{255559EA-6F7C-43CD-BDDC-483909CBE4E5}"/>
+    <hyperlink ref="F100" r:id="rId49" xr:uid="{DE4F4656-4A41-45E2-91A8-CF29442F197E}"/>
+    <hyperlink ref="F99" r:id="rId50" xr:uid="{526B2BFB-68F1-48F7-A02B-E8238AE5402E}"/>
+    <hyperlink ref="F98" r:id="rId51" xr:uid="{F6E862C0-BC4D-4341-9322-A2C23AD1CDA9}"/>
+    <hyperlink ref="F97" r:id="rId52" xr:uid="{FF52ADA3-D4FD-4EC8-9C66-4E590DBC318D}"/>
+    <hyperlink ref="F96" r:id="rId53" xr:uid="{2D1247AD-E05E-45F9-9D27-3D38455D3C87}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
